--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2021.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8546A6A-1A83-4977-8AA6-6CD96192C85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098617D4-FFCE-4B83-A6D8-355E293FCE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="795" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>CSE2025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,10 +362,6 @@
   </si>
   <si>
     <t>지구환경과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학문개론 4택1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +508,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,22 +844,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -872,7 +871,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,7 +887,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G2">
@@ -920,22 +919,22 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -950,7 +949,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -965,7 +964,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -980,7 +979,7 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -995,7 +994,7 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1010,7 +1009,7 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1025,7 +1024,7 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1040,7 +1039,7 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1055,14 +1054,14 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1070,7 +1069,7 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1079,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1087,7 +1086,7 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1102,7 +1101,7 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1115,9 +1114,9 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1132,7 +1131,7 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1147,22 +1146,22 @@
       <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1177,7 +1176,7 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1194,7 +1193,7 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1209,7 +1208,7 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1224,8 +1223,8 @@
       <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>93</v>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1240,7 @@
       <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1256,7 +1255,7 @@
       <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1271,7 +1270,7 @@
       <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1288,7 +1287,7 @@
       <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1303,7 +1302,7 @@
       <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1318,7 +1317,7 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1335,7 +1334,7 @@
       <c r="D30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1350,7 +1349,7 @@
       <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1365,7 +1364,7 @@
       <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1380,7 +1379,7 @@
       <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1395,7 +1394,7 @@
       <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1444,13 +1443,13 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,9 +1479,7 @@
       <c r="D40" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1530,10 +1527,9 @@
       <c r="E43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E40:E43"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E29:E34"/>
     <mergeCell ref="E20:E22"/>

--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2021.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098617D4-FFCE-4B83-A6D8-355E293FCE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E206B2F-771D-4087-A5C7-F16CEC825530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="42045" yWindow="-30" windowWidth="15570" windowHeight="11640" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>CSE2025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리더십 3택1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본소양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,139 +285,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학문실험 6택1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PRI4012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미적분학및연습2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학수학1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치해석및실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학문개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물학개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구환경과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학수강좌번호</t>
+  </si>
+  <si>
+    <t>학점</t>
+  </si>
+  <si>
+    <t>교과목명</t>
+  </si>
+  <si>
+    <t>이수구분</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI4051</t>
+  </si>
+  <si>
+    <t>CSE2028</t>
+  </si>
+  <si>
+    <t>어드벤처디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자아와명상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGC1074</t>
+  </si>
+  <si>
+    <t>RGC1080</t>
+  </si>
+  <si>
+    <t>RGC1081</t>
   </si>
   <si>
     <t>필수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미적분학및연습2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학수학1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이산수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치해석및실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학문개론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리학개론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학개론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물학개론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지구환경과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학수강좌번호</t>
-  </si>
-  <si>
-    <t>학점</t>
-  </si>
-  <si>
-    <t>교과목명</t>
-  </si>
-  <si>
-    <t>이수구분</t>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본소양3택3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI4051</t>
-  </si>
-  <si>
-    <t>CSE2028</t>
-  </si>
-  <si>
-    <t>어드벤처디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자아와명상2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGC1074</t>
-  </si>
-  <si>
-    <t>RGC1080</t>
-  </si>
-  <si>
-    <t>RGC1081</t>
+  </si>
+  <si>
+    <t>택3</t>
+  </si>
+  <si>
+    <t>택1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,34 +835,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -887,8 +878,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G2">
         <v>84</v>
@@ -919,22 +910,26 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -949,7 +944,9 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -964,7 +961,9 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -979,7 +978,9 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -994,7 +995,9 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1009,7 +1012,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1024,7 +1029,9 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1039,7 +1046,9 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1054,14 +1063,16 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1069,8 +1080,8 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
+      <c r="E13" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1078,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1086,7 +1097,9 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1101,7 +1114,9 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1114,9 +1129,11 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1131,7 +1148,9 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1146,22 +1165,26 @@
       <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1176,8 +1199,8 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1216,9 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1208,333 +1233,341 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>67</v>
+      <c r="E26" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E13:E19"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
